--- a/ORA.UI.PAMS.Demo/XLSX/Attachments.xlsx
+++ b/ORA.UI.PAMS.Demo/XLSX/Attachments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ORISWebApps\ORA.UI.PAMS.Demo\ORA.UI.PAMS.Demo\ORA.UI.PAMS.Demo\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB869B-3117-4DC4-9668-F4398511FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E5B1AF-BD14-4C5E-A4E9-741ABDE4ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>PAMS - Post Award Management System</t>
   </si>
@@ -133,31 +133,10 @@
     <t>Cabric _07-01-20-09-30-20_Copy of Distribution of Payroll Expenses (DOPE).xlsx</t>
   </si>
   <si>
-    <t>12/01/2021 10:27 AM</t>
-  </si>
-  <si>
-    <t>05/26/2021 05:28 PM</t>
-  </si>
-  <si>
-    <t>02/23/2021 03:40 PM</t>
-  </si>
-  <si>
-    <t>01/26/2021 10:46 PM</t>
-  </si>
-  <si>
-    <t>01/26/2021 10:43 PM</t>
-  </si>
-  <si>
-    <t>01/26/2021 10:34 PM</t>
-  </si>
-  <si>
-    <t>12/01/2020 05:50 PM</t>
-  </si>
-  <si>
-    <t>12/01/2020 05:49 PM</t>
-  </si>
-  <si>
-    <t>04/30/2023 01:20 AM</t>
+    <t>8/6/2021 10:35:33 AM</t>
+  </si>
+  <si>
+    <t>11/9/2022 11:56:33 AM</t>
   </si>
 </sst>
 </file>
@@ -257,13 +236,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -619,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,46 +613,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -709,7 +688,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -730,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -756,10 +735,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -782,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
@@ -806,10 +785,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
@@ -830,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>17</v>
@@ -854,10 +833,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -876,10 +855,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -903,7 +882,7 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" errors="blank" r:id="rId1"/>
+  <pageSetup orientation="portrait" errors="blank"/>
 </worksheet>
 </file>
 
@@ -920,12 +899,12 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
